--- a/Unity/Assets/Config/Excel/Datas/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC576B18-DFF7-4ACC-96CA-FA417C5F958C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909226E2-9F0A-4A65-9E89-27A4C3A1098F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2184" yWindow="3300" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -543,21 +543,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="7" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="8" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="7" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="8" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="8" customWidth="1"/>
     <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,7 +581,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -605,7 +605,7 @@
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="8">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>31</v>
@@ -806,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="8">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>33</v>
@@ -830,9 +830,9 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -855,7 +855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -878,7 +878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,7 +901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="5">
         <v>300</v>
       </c>
@@ -921,7 +921,7 @@
         <v>30300</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>301</v>
       </c>
@@ -941,7 +941,7 @@
         <v>30301</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>302</v>
       </c>
@@ -961,7 +961,7 @@
         <v>30302</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>303</v>
       </c>
@@ -981,7 +981,7 @@
         <v>30303</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>304</v>
       </c>
